--- a/data/fact_data/parbhani/Parbhani_Sec_May_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_May_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A16A56-0599-CC4A-A540-E9CA2073CFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB033C41-2365-CF4A-97DE-60A0E8F33DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>May</t>
   </si>
   <si>
-    <t>May</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="290" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,6 +1209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="290" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="326">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1874,9 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1886,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1987,13 @@
         <v>4459</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2047,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2107,13 @@
         <v>1936</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2137,13 @@
         <v>4446</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2177,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2249,13 @@
         <v>29463</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2279,13 @@
         <v>4576</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2293,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -2308,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2323,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -2335,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2350,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>475</v>
@@ -2365,13 +2366,13 @@
         <v>33250</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2380,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>303</v>
@@ -2395,13 +2396,13 @@
         <v>14847</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2410,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2436,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>15</v>
@@ -2451,13 +2452,13 @@
         <v>5985</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2466,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2481,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2496,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2535,13 @@
         <v>19140</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2549,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2564,13 +2565,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2595,13 @@
         <v>4560</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2625,13 @@
         <v>6720</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2639,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -2654,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2668,7 +2669,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2684,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2698,7 +2699,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
@@ -2714,13 +2715,13 @@
         <v>1080</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2728,7 +2729,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -2744,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2758,7 +2759,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2774,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2788,7 +2789,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2804,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2818,7 +2819,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2834,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2864,13 +2865,13 @@
         <v>863</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2878,7 +2879,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2887,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2917,13 +2918,13 @@
         <v>2272</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2947,13 +2948,13 @@
         <v>6835</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2977,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2991,7 +2992,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -3007,13 +3008,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3037,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3067,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3081,7 +3082,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -3097,13 +3098,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3111,7 +3112,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3127,13 +3128,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3141,7 +3142,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3157,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3171,7 +3172,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3180,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3194,7 +3195,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -3207,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3237,13 +3238,13 @@
         <v>1968</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3267,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3297,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3311,7 +3312,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3320,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3334,7 +3335,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>5</v>
@@ -3350,13 +3351,13 @@
         <v>2420</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3364,7 +3365,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3374,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3388,7 +3389,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>15</v>
@@ -3404,13 +3405,13 @@
         <v>11535</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3418,7 +3419,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3428,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3442,7 +3443,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -3458,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3472,7 +3473,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3482,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3496,7 +3497,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3512,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3526,7 +3527,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3542,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3556,7 +3557,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -3572,13 +3573,13 @@
         <v>224</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3586,7 +3587,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3602,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3616,7 +3617,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3632,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3646,7 +3647,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3654,13 +3655,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3668,7 +3669,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -3680,13 +3681,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3694,7 +3695,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3706,13 +3707,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3720,7 +3721,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3732,13 +3733,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3746,18 +3747,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3765,7 +3766,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>5</v>
@@ -3777,13 +3778,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3791,7 +3792,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3799,13 +3800,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3813,7 +3814,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -3825,13 +3826,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>18</v>
@@ -3851,13 +3852,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3865,7 +3866,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>206522</v>
@@ -3874,13 +3875,13 @@
         <v>88834</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3900,9 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3912,31 +3911,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3957,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3987,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4017,13 +4016,13 @@
         <v>910</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4043,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4069,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4095,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4125,13 +4124,13 @@
         <v>1408</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4155,13 +4154,13 @@
         <v>1140</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4169,7 +4168,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4181,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4195,7 +4194,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4207,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4233,13 +4232,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4263,13 +4262,13 @@
         <v>3660</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4289,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4303,7 +4302,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4315,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4329,7 +4328,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4338,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4352,7 +4351,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>101</v>
@@ -4368,13 +4367,13 @@
         <v>7210</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4382,7 +4381,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>56</v>
@@ -4398,13 +4397,13 @@
         <v>3136</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4412,7 +4411,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4424,13 +4423,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4438,7 +4437,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4450,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4464,7 +4463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4476,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4490,7 +4489,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4499,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4529,13 +4528,13 @@
         <v>4466</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4543,7 +4542,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4559,13 +4558,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4589,13 +4588,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4619,13 +4618,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4633,7 +4632,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4649,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4663,7 +4662,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4677,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4691,7 +4690,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4707,13 +4706,13 @@
         <v>1440</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4721,7 +4720,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4737,13 +4736,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4751,7 +4750,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4767,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4781,7 +4780,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4797,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4811,7 +4810,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4827,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4857,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4871,7 +4870,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4880,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4910,13 +4909,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4936,13 +4935,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4962,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4976,7 +4975,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4988,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5014,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5040,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5054,7 +5053,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5070,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5084,7 +5083,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5100,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5114,7 +5113,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5130,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5144,7 +5143,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5153,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5167,7 +5166,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5176,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5202,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5228,13 +5227,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5258,13 +5257,13 @@
         <v>2007</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5272,7 +5271,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5281,13 +5280,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5295,7 +5294,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -5311,13 +5310,13 @@
         <v>3388</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5325,7 +5324,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5335,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5349,7 +5348,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5361,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5375,7 +5374,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5385,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5399,7 +5398,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5411,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5425,7 +5424,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5435,13 +5434,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5449,7 +5448,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5461,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5475,7 +5474,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5487,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5501,7 +5500,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5513,13 +5512,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5527,7 +5526,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5539,13 +5538,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5553,7 +5552,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5565,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5579,7 +5578,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5587,13 +5586,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5601,7 +5600,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5609,13 +5608,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5623,7 +5622,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5631,13 +5630,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5645,7 +5644,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5653,13 +5652,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5667,18 +5666,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5686,7 +5685,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>10</v>
@@ -5698,13 +5697,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5712,7 +5711,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5720,13 +5719,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5734,7 +5733,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
@@ -5746,13 +5745,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5760,7 +5759,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -5772,13 +5771,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5786,7 +5785,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>27699</v>
@@ -5795,13 +5794,13 @@
         <v>47014</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5821,9 +5820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5833,31 +5830,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5874,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5900,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5930,13 +5927,13 @@
         <v>4732</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5956,13 +5953,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5982,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6008,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6038,13 +6035,13 @@
         <v>880</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6068,13 +6065,13 @@
         <v>969</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6082,7 +6079,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6098,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6112,7 +6109,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6128,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6154,13 +6151,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6184,13 +6181,13 @@
         <v>5307</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6214,13 +6211,13 @@
         <v>1040</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6228,7 +6225,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -6244,13 +6241,13 @@
         <v>147</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6271,13 +6268,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6285,7 +6282,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>289</v>
@@ -6301,13 +6298,13 @@
         <v>2940</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6315,7 +6312,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>133</v>
@@ -6331,13 +6328,13 @@
         <v>3430</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6345,7 +6342,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6361,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6375,7 +6372,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6391,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6405,7 +6402,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -6421,13 +6418,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6435,7 +6432,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6444,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6474,13 +6471,13 @@
         <v>2552</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6488,7 +6485,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -6504,13 +6501,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6534,13 +6531,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6564,13 +6561,13 @@
         <v>3360</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6578,7 +6575,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -6594,13 +6591,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6608,7 +6605,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6624,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6638,7 +6635,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
@@ -6654,13 +6651,13 @@
         <v>360</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6668,7 +6665,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6684,13 +6681,13 @@
         <v>269</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6698,7 +6695,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -6714,13 +6711,13 @@
         <v>1899</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6728,7 +6725,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6744,13 +6741,13 @@
         <v>1578</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6758,7 +6755,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6774,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6804,13 +6801,13 @@
         <v>863</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6818,7 +6815,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6827,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6857,13 +6854,13 @@
         <v>2272</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6887,13 +6884,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6917,13 +6914,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6931,7 +6928,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -6947,13 +6944,13 @@
         <v>840</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6977,13 +6974,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -7007,13 +7004,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7021,7 +7018,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -7037,13 +7034,13 @@
         <v>6350</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7051,7 +7048,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7067,13 +7064,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7081,7 +7078,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -7097,13 +7094,13 @@
         <v>1510</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7111,7 +7108,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7120,13 +7117,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7134,7 +7131,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7143,13 +7140,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7173,13 +7170,13 @@
         <v>6888</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7203,13 +7200,13 @@
         <v>628</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7233,13 +7230,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7247,7 +7244,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7256,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7270,7 +7267,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -7286,13 +7283,13 @@
         <v>2420</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7300,7 +7297,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7310,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7324,7 +7321,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>8</v>
@@ -7340,13 +7337,13 @@
         <v>37681</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7354,7 +7351,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7364,13 +7361,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7378,7 +7375,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -7394,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7408,7 +7405,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7418,13 +7415,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7432,7 +7429,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -7448,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7462,7 +7459,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7478,13 +7475,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7492,7 +7489,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7508,13 +7505,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7522,7 +7519,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7538,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7552,7 +7549,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7568,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7582,7 +7579,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7590,13 +7587,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7604,7 +7601,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7616,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7630,7 +7627,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7642,13 +7639,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7656,7 +7653,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7668,13 +7665,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7682,18 +7679,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7701,7 +7698,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
@@ -7713,13 +7710,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7727,7 +7724,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -7739,13 +7736,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7753,7 +7750,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>10</v>
@@ -7765,13 +7762,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7779,7 +7776,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>10</v>
@@ -7791,13 +7788,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7805,7 +7802,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>123074</v>
@@ -7814,13 +7811,13 @@
         <v>80462</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7840,9 +7837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7851,31 +7846,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7892,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7918,13 +7913,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7948,13 +7943,13 @@
         <v>6097</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7974,13 +7969,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -8004,13 +7999,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8030,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8060,13 +8055,13 @@
         <v>1056</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8090,13 +8085,13 @@
         <v>228</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8104,7 +8099,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8116,13 +8111,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8130,7 +8125,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8142,13 +8137,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8172,13 +8167,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8202,13 +8197,13 @@
         <v>7137</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8232,13 +8227,13 @@
         <v>936</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8246,7 +8241,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -8262,13 +8257,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8276,7 +8271,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -8289,13 +8284,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8303,7 +8298,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>175</v>
@@ -8319,13 +8314,13 @@
         <v>5740</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8333,7 +8328,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>200</v>
@@ -8349,13 +8344,13 @@
         <v>5635</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8363,7 +8358,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8375,13 +8370,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8389,7 +8384,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -8405,13 +8400,13 @@
         <v>26334</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8419,7 +8414,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8431,13 +8426,13 @@
         <v>6190</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8445,7 +8440,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8454,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8484,13 +8479,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8498,7 +8493,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -8514,13 +8509,13 @@
         <v>204</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8544,13 +8539,13 @@
         <v>720</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8574,13 +8569,13 @@
         <v>1440</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8588,7 +8583,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -8604,13 +8599,13 @@
         <v>1660</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8618,7 +8613,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8634,13 +8629,13 @@
         <v>3440</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8648,7 +8643,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8664,13 +8659,13 @@
         <v>720</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8678,7 +8673,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -8694,13 +8689,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8708,7 +8703,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -8724,13 +8719,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8738,7 +8733,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -8754,13 +8749,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8768,7 +8763,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -8784,13 +8779,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8814,13 +8809,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8828,7 +8823,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8837,13 +8832,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8867,13 +8862,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8897,13 +8892,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8927,13 +8922,13 @@
         <v>3820</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8941,7 +8936,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8957,13 +8952,13 @@
         <v>840</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8983,13 +8978,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9009,13 +9004,13 @@
         <v>5432</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9023,7 +9018,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9039,13 +9034,13 @@
         <v>7620</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9053,7 +9048,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9069,13 +9064,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9083,7 +9078,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9099,13 +9094,13 @@
         <v>5285</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9113,7 +9108,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9122,13 +9117,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9136,7 +9131,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9145,13 +9140,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9175,13 +9170,13 @@
         <v>2952</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9205,13 +9200,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9235,13 +9230,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9249,7 +9244,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9258,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9272,7 +9267,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -9288,13 +9283,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9302,7 +9297,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9312,13 +9307,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9326,7 +9321,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>9</v>
@@ -9342,13 +9337,13 @@
         <v>2307</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9356,7 +9351,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9366,13 +9361,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9380,7 +9375,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -9396,13 +9391,13 @@
         <v>310</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9410,7 +9405,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9420,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9434,7 +9429,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9446,13 +9441,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9460,7 +9455,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9472,13 +9467,13 @@
         <v>472</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9486,7 +9481,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9498,13 +9493,13 @@
         <v>448</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9512,7 +9507,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9524,13 +9519,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9538,7 +9533,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9550,13 +9545,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9564,7 +9559,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9572,13 +9567,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9586,7 +9581,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9594,13 +9589,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9608,7 +9603,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9616,13 +9611,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9630,7 +9625,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9638,13 +9633,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9652,18 +9647,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9671,7 +9666,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>5</v>
@@ -9683,13 +9678,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9697,7 +9692,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9705,13 +9700,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9719,7 +9714,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -9731,13 +9726,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9745,7 +9740,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -9757,13 +9752,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9771,7 +9766,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>69868</v>
@@ -9780,13 +9775,13 @@
         <v>107003</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9807,7 +9802,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -9817,32 +9812,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
+      <c r="A1" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9862,10 +9857,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9888,10 +9883,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9918,10 +9913,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9944,10 +9939,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9970,10 +9965,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9996,10 +9991,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10022,10 +10017,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10048,10 +10043,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10059,7 +10054,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10074,10 +10069,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10085,7 +10080,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10100,10 +10095,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10126,10 +10121,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10156,10 +10151,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10182,10 +10177,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10193,7 +10188,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10208,10 +10203,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10219,7 +10214,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10231,10 +10226,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10242,7 +10237,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10261,10 +10256,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10272,7 +10267,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10287,10 +10282,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10298,7 +10293,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10313,10 +10308,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10324,7 +10319,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10339,10 +10334,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10350,7 +10345,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10365,10 +10360,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10376,7 +10371,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10388,10 +10383,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10416,10 +10411,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10427,7 +10422,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10446,10 +10441,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10476,10 +10471,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10506,10 +10501,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10517,7 +10512,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10532,10 +10527,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10543,7 +10538,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10558,10 +10553,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10569,7 +10564,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10584,10 +10579,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10595,7 +10590,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10610,10 +10605,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10621,7 +10616,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10636,10 +10631,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10647,7 +10642,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10662,10 +10657,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10673,7 +10668,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10688,10 +10683,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10714,10 +10709,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10725,7 +10720,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10737,10 +10732,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10763,10 +10758,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10789,10 +10784,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10815,10 +10810,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10826,7 +10821,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10845,10 +10840,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10871,10 +10866,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10897,10 +10892,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10908,7 +10903,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10923,10 +10918,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10934,7 +10929,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10949,10 +10944,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10960,7 +10955,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10975,10 +10970,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10986,7 +10981,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10998,10 +10993,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11009,7 +11004,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11021,10 +11016,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11047,10 +11042,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11073,10 +11068,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11099,10 +11094,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11110,7 +11105,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11122,10 +11117,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11133,7 +11128,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11148,10 +11143,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11159,7 +11154,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11172,10 +11167,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11183,7 +11178,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11198,10 +11193,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11209,7 +11204,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11222,10 +11217,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11233,7 +11228,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11248,10 +11243,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11259,7 +11254,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11272,10 +11267,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11283,7 +11278,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11298,10 +11293,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11309,7 +11304,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11324,10 +11319,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11335,7 +11330,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11350,10 +11345,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11361,7 +11356,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11376,10 +11371,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11387,7 +11382,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11402,10 +11397,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11413,7 +11408,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11424,10 +11419,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11435,7 +11430,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11446,10 +11441,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11457,7 +11452,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11468,10 +11463,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11479,7 +11474,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11490,10 +11485,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11501,7 +11496,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11509,10 +11504,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11520,7 +11515,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11531,10 +11526,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11542,7 +11537,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11553,10 +11548,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11564,7 +11559,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11575,10 +11570,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11586,7 +11581,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11597,10 +11592,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11608,7 +11603,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11620,10 +11615,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
